--- a/季诚/采购/鼎一/标签.xlsx
+++ b/季诚/采购/鼎一/标签.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Model：</t>
   </si>
@@ -32,40 +32,49 @@
     <t>IV：</t>
   </si>
   <si>
+    <t>U(125-130LM)</t>
+  </si>
+  <si>
+    <t>根据实际流明标，T(120-125LM),U(125-130LM),V(135-140LM)</t>
+  </si>
+  <si>
+    <t>VF：</t>
+  </si>
+  <si>
+    <t>9.1-9.4V</t>
+  </si>
+  <si>
+    <t>根据实际电压标</t>
+  </si>
+  <si>
+    <t>Ra</t>
+  </si>
+  <si>
+    <t>&gt;70</t>
+  </si>
+  <si>
+    <t>Lot No：</t>
+  </si>
+  <si>
+    <t>这行数字跟原标签LOT.NO写一样就行</t>
+  </si>
+  <si>
+    <t>Quantity：</t>
+  </si>
+  <si>
+    <t>18000 PCS</t>
+  </si>
+  <si>
+    <t>Remarks：</t>
+  </si>
+  <si>
+    <t>9V/100MA 2835</t>
+  </si>
+  <si>
+    <t>JC-2835PW3A80-1W</t>
+  </si>
+  <si>
     <t>T(120-125LM)</t>
-  </si>
-  <si>
-    <t>VF：</t>
-  </si>
-  <si>
-    <t>9.1-9.4V</t>
-  </si>
-  <si>
-    <t>Ra</t>
-  </si>
-  <si>
-    <t>&gt;70</t>
-  </si>
-  <si>
-    <t>Lot No：</t>
-  </si>
-  <si>
-    <t>这行数字跟原标签LOT.NO写一样就行</t>
-  </si>
-  <si>
-    <t>Quantity：</t>
-  </si>
-  <si>
-    <t>18000 PCS</t>
-  </si>
-  <si>
-    <t>Remarks：</t>
-  </si>
-  <si>
-    <t>9V/100MA 2835</t>
-  </si>
-  <si>
-    <t>JC-2835PW3A80-1W</t>
   </si>
   <si>
     <t>8.8-9.1V</t>
@@ -79,9 +88,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -111,6 +120,104 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -120,81 +227,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -210,39 +242,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,187 +272,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,11 +466,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,17 +496,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,30 +563,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -562,10 +571,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,133 +583,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1039,14 +1048,14 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="14.6" customWidth="1"/>
     <col min="2" max="2" width="26.8" customWidth="1"/>
-    <col min="3" max="3" width="42.8" customWidth="1"/>
+    <col min="3" max="3" width="60.6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.4" spans="1:2">
@@ -1065,53 +1074,59 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="17.4" spans="1:2">
+    <row r="3" ht="17.4" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" ht="17.4" spans="1:2">
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="17.4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" ht="17.4" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" ht="17.4" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" ht="17.4" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" ht="17.4" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1142,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" ht="17.4" spans="1:2">
@@ -1158,28 +1173,28 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="17.4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" ht="17.4" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" ht="17.4" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2">
         <v>1902180014</v>
@@ -1187,18 +1202,18 @@
     </row>
     <row r="7" ht="17.4" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" ht="17.4" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/季诚/采购/鼎一/标签.xlsx
+++ b/季诚/采购/鼎一/标签.xlsx
@@ -4,83 +4,84 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9540"/>
+    <workbookView windowWidth="23040" windowHeight="9540" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="120-3A" sheetId="2" r:id="rId1"/>
-    <sheet name="115-3A" sheetId="1" r:id="rId2"/>
+    <sheet name="115-3A" sheetId="1" r:id="rId1"/>
+    <sheet name="120-3A" sheetId="2" r:id="rId2"/>
+    <sheet name="120-3A (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
   <si>
     <t>Model：</t>
   </si>
   <si>
+    <t>JC-2835PW3A80-1W</t>
+  </si>
+  <si>
+    <t>X/Y(HUE)：</t>
+  </si>
+  <si>
+    <t>65A(6000-6500K)</t>
+  </si>
+  <si>
+    <t>IV：</t>
+  </si>
+  <si>
+    <t>T(120-125LM)</t>
+  </si>
+  <si>
+    <t>VF：</t>
+  </si>
+  <si>
+    <t>8.8-9.1V</t>
+  </si>
+  <si>
+    <t>Ra</t>
+  </si>
+  <si>
+    <t>&gt;80</t>
+  </si>
+  <si>
+    <t>Lot No：</t>
+  </si>
+  <si>
+    <t>Quantity：</t>
+  </si>
+  <si>
+    <t>18000 PCS</t>
+  </si>
+  <si>
+    <t>Remarks：</t>
+  </si>
+  <si>
+    <t>9V/100MA 2835</t>
+  </si>
+  <si>
     <t>JC-2835PW3A70-1W</t>
   </si>
   <si>
-    <t>X/Y(HUE)：</t>
-  </si>
-  <si>
-    <t>65A(6000-6500K)</t>
-  </si>
-  <si>
-    <t>IV：</t>
-  </si>
-  <si>
     <t>U(125-130LM)</t>
   </si>
   <si>
     <t>根据实际流明标，T(120-125LM),U(125-130LM),V(135-140LM)</t>
   </si>
   <si>
-    <t>VF：</t>
-  </si>
-  <si>
     <t>9.1-9.4V</t>
   </si>
   <si>
     <t>根据实际电压标</t>
   </si>
   <si>
-    <t>Ra</t>
-  </si>
-  <si>
     <t>&gt;70</t>
   </si>
   <si>
-    <t>Lot No：</t>
-  </si>
-  <si>
     <t>这行数字跟原标签LOT.NO写一样就行</t>
-  </si>
-  <si>
-    <t>Quantity：</t>
-  </si>
-  <si>
-    <t>18000 PCS</t>
-  </si>
-  <si>
-    <t>Remarks：</t>
-  </si>
-  <si>
-    <t>9V/100MA 2835</t>
-  </si>
-  <si>
-    <t>JC-2835PW3A80-1W</t>
-  </si>
-  <si>
-    <t>T(120-125LM)</t>
-  </si>
-  <si>
-    <t>8.8-9.1V</t>
-  </si>
-  <si>
-    <t>&gt;80</t>
   </si>
 </sst>
 </file>
@@ -88,9 +89,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -127,6 +128,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -134,20 +164,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -161,21 +177,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,16 +243,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,24 +303,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -332,13 +345,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,6 +357,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -362,60 +375,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -428,7 +441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,18 +454,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,7 +575,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,31 +587,31 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,28 +629,28 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -658,58 +659,58 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -720,11 +721,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1044,99 +1045,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelRow="7" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="14.6" customWidth="1"/>
-    <col min="2" max="2" width="26.8" customWidth="1"/>
-    <col min="3" max="3" width="60.6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="17.4" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" ht="17.4" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="17.4" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" ht="17.4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" ht="17.4" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" ht="17.4" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" ht="17.4" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" ht="17.4" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1157,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" ht="17.4" spans="1:2">
@@ -1173,47 +1081,47 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="17.4" spans="1:2">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" ht="17.4" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" ht="17.4" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
         <v>1902180014</v>
       </c>
     </row>
     <row r="7" ht="17.4" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="17.4" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1221,4 +1129,190 @@
   <pageSetup paperSize="282" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelRow="7" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="14.6" customWidth="1"/>
+    <col min="2" max="2" width="26.8" customWidth="1"/>
+    <col min="3" max="3" width="60.6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.4" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="17.4" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="17.4" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="17.4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="17.4" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="17.4" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" ht="17.4" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="17.4" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelRow="7" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="14.6" customWidth="1"/>
+    <col min="2" max="2" width="26.8" customWidth="1"/>
+    <col min="3" max="3" width="60.6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.4" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="17.4" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="17.4" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="17.4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="17.4" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="17.4" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" ht="17.4" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="17.4" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>